--- a/data/source/a-level/alevel_2020_ni.xlsx
+++ b/data/source/a-level/alevel_2020_ni.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/GCE/Results/GCE Results/Cumulative/A Level Cat 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\a-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_EA884D045D81C118DFD9432CF1BFA96B47716A64" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27C9AC71-5CE5-4130-8EE4-4D60EA88CC39}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Northern Ireland All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -226,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
@@ -245,23 +244,28 @@
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,14 +428,14 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,17 +751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K296"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -765,83 +769,84 @@
     <col min="5" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="19" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,17 +859,17 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -895,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -906,31 +911,31 @@
         <v>206</v>
       </c>
       <c r="D12" s="13">
-        <v>1.7267393126571668</v>
+        <v>1.7265945855334843</v>
       </c>
       <c r="E12" s="11">
-        <v>11.165048543689322</v>
+        <v>12.621359223300971</v>
       </c>
       <c r="F12" s="11">
-        <v>23.78640776699029</v>
+        <v>35.922330097087382</v>
       </c>
       <c r="G12" s="11">
-        <v>62.621359223300978</v>
+        <v>72.330097087378647</v>
       </c>
       <c r="H12" s="11">
-        <v>91.747572815533985</v>
+        <v>95.631067961165044</v>
       </c>
       <c r="I12" s="11">
-        <v>97.087378640776706</v>
+        <v>98.543689320388353</v>
       </c>
       <c r="J12" s="11">
-        <v>99.514563106796118</v>
+        <v>100</v>
       </c>
       <c r="K12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -961,7 +966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -972,22 +977,22 @@
         <v>661</v>
       </c>
       <c r="D14" s="13">
-        <v>4.167454763255785</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="E14" s="11">
-        <v>15.431164901664147</v>
+        <v>22.54160363086233</v>
       </c>
       <c r="F14" s="11">
-        <v>37.518910741301056</v>
+        <v>50.529500756429655</v>
       </c>
       <c r="G14" s="11">
-        <v>73.222390317700459</v>
+        <v>82.904689863842663</v>
       </c>
       <c r="H14" s="11">
-        <v>92.738275340393344</v>
+        <v>96.822995461422096</v>
       </c>
       <c r="I14" s="11">
-        <v>99.243570347957643</v>
+        <v>99.546142208774583</v>
       </c>
       <c r="J14" s="11">
         <v>100</v>
@@ -996,7 +1001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1027,7 +1032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1038,31 +1043,31 @@
         <v>867</v>
       </c>
       <c r="D16" s="13">
-        <v>3.1197150156525493</v>
+        <v>3.1192660550458715</v>
       </c>
       <c r="E16" s="11">
-        <v>14.417531718569782</v>
+        <v>20.184544405997691</v>
       </c>
       <c r="F16" s="11">
-        <v>34.256055363321799</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="G16" s="11">
-        <v>70.703575547866208</v>
+        <v>80.392156862745097</v>
       </c>
       <c r="H16" s="11">
-        <v>92.502883506343707</v>
+        <v>96.539792387543258</v>
       </c>
       <c r="I16" s="11">
-        <v>98.731257208765854</v>
+        <v>99.307958477508649</v>
       </c>
       <c r="J16" s="11">
-        <v>99.88465974625143</v>
+        <v>100</v>
       </c>
       <c r="K16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1093,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1106,7 +1111,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1117,31 +1122,31 @@
         <v>888</v>
       </c>
       <c r="D19" s="13">
-        <v>7.4434199497066214</v>
+        <v>7.4427960774453101</v>
       </c>
       <c r="E19" s="11">
-        <v>9.4594594594594597</v>
+        <v>14.864864864864865</v>
       </c>
       <c r="F19" s="11">
-        <v>33.783783783783782</v>
+        <v>44.81981981981982</v>
       </c>
       <c r="G19" s="11">
-        <v>61.936936936936938</v>
+        <v>73.873873873873876</v>
       </c>
       <c r="H19" s="11">
-        <v>83.558558558558559</v>
+        <v>92.342342342342349</v>
       </c>
       <c r="I19" s="11">
-        <v>95.270270270270274</v>
+        <v>98.761261261261254</v>
       </c>
       <c r="J19" s="11">
-        <v>99.549549549549553</v>
+        <v>100</v>
       </c>
       <c r="K19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1172,7 +1177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1183,31 +1188,31 @@
         <v>1751</v>
       </c>
       <c r="D21" s="13">
-        <v>11.039657020364416</v>
+        <v>11.03756933938477</v>
       </c>
       <c r="E21" s="11">
-        <v>10.908052541404912</v>
+        <v>15.248429468874928</v>
       </c>
       <c r="F21" s="11">
-        <v>37.464306110793835</v>
+        <v>47.915476870359797</v>
       </c>
       <c r="G21" s="11">
-        <v>67.332952598515135</v>
+        <v>77.669902912621353</v>
       </c>
       <c r="H21" s="11">
-        <v>87.207310108509432</v>
+        <v>95.145631067961162</v>
       </c>
       <c r="I21" s="11">
-        <v>96.916047972587094</v>
+        <v>99.428897772701319</v>
       </c>
       <c r="J21" s="11">
-        <v>99.48600799543118</v>
+        <v>99.828669331810389</v>
       </c>
       <c r="K21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1238,7 +1243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1249,31 +1254,31 @@
         <v>2639</v>
       </c>
       <c r="D23" s="13">
-        <v>9.495879961138499</v>
+        <v>9.494513401690952</v>
       </c>
       <c r="E23" s="11">
-        <v>10.420613868889731</v>
+        <v>15.119363395225463</v>
       </c>
       <c r="F23" s="11">
-        <v>36.225843122394849</v>
+        <v>46.873815839333083</v>
       </c>
       <c r="G23" s="11">
-        <v>65.517241379310349</v>
+        <v>76.392572944297072</v>
       </c>
       <c r="H23" s="11">
-        <v>85.979537703675632</v>
+        <v>94.202349374763173</v>
       </c>
       <c r="I23" s="11">
-        <v>96.36225843122395</v>
+        <v>99.204244031830228</v>
       </c>
       <c r="J23" s="11">
-        <v>99.50738916256158</v>
+        <v>99.886320575975745</v>
       </c>
       <c r="K23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1304,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1317,7 +1322,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1328,31 +1333,31 @@
         <v>1038</v>
       </c>
       <c r="D26" s="13">
-        <v>8.7007544006705775</v>
+        <v>8.7000251445813426</v>
       </c>
       <c r="E26" s="11">
-        <v>4.6242774566473983</v>
+        <v>7.2254335260115612</v>
       </c>
       <c r="F26" s="11">
-        <v>21.194605009633911</v>
+        <v>30.732177263969174</v>
       </c>
       <c r="G26" s="11">
-        <v>57.032755298651253</v>
+        <v>69.845857418111763</v>
       </c>
       <c r="H26" s="11">
-        <v>80.732177263969177</v>
+        <v>92.967244701348747</v>
       </c>
       <c r="I26" s="11">
-        <v>94.894026974951828</v>
+        <v>98.458574181117527</v>
       </c>
       <c r="J26" s="11">
-        <v>97.591522157996152</v>
+        <v>99.614643545279378</v>
       </c>
       <c r="K26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1383,7 +1388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1394,31 +1399,31 @@
         <v>903</v>
       </c>
       <c r="D28" s="13">
-        <v>5.6932097597881599</v>
+        <v>5.6921331316187596</v>
       </c>
       <c r="E28" s="11">
-        <v>6.3122923588039868</v>
+        <v>10.520487264673312</v>
       </c>
       <c r="F28" s="11">
-        <v>28.349944629014395</v>
+        <v>42.192691029900331</v>
       </c>
       <c r="G28" s="11">
-        <v>59.800664451827245</v>
+        <v>76.744186046511629</v>
       </c>
       <c r="H28" s="11">
-        <v>86.378737541528238</v>
+        <v>95.68106312292359</v>
       </c>
       <c r="I28" s="11">
-        <v>96.013289036544847</v>
+        <v>98.671096345514954</v>
       </c>
       <c r="J28" s="11">
-        <v>97.895902547065333</v>
+        <v>99.557032115171651</v>
       </c>
       <c r="K28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1449,7 +1454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1460,31 +1465,31 @@
         <v>1941</v>
       </c>
       <c r="D30" s="13">
-        <v>6.9842754848692028</v>
+        <v>6.9832703723691312</v>
       </c>
       <c r="E30" s="11">
-        <v>5.4095826893353935</v>
+        <v>8.7583719732096856</v>
       </c>
       <c r="F30" s="11">
-        <v>24.52344152498712</v>
+        <v>36.063884595569299</v>
       </c>
       <c r="G30" s="11">
-        <v>58.320453374549196</v>
+        <v>73.055126223596091</v>
       </c>
       <c r="H30" s="11">
-        <v>83.359093250901594</v>
+        <v>94.229778464708914</v>
       </c>
       <c r="I30" s="11">
-        <v>95.41473467284905</v>
+        <v>98.557444616177222</v>
       </c>
       <c r="J30" s="11">
-        <v>97.733127253992791</v>
+        <v>99.587841318907778</v>
       </c>
       <c r="K30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1515,7 +1520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1528,7 +1533,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1539,31 +1544,31 @@
         <v>729</v>
       </c>
       <c r="D33" s="13">
-        <v>6.1106454316848282</v>
+        <v>6.1101332662811165</v>
       </c>
       <c r="E33" s="11">
-        <v>17.421124828532236</v>
+        <v>23.593964334705074</v>
       </c>
       <c r="F33" s="11">
-        <v>48.559670781893004</v>
+        <v>60.768175582990402</v>
       </c>
       <c r="G33" s="11">
-        <v>73.251028806584358</v>
+        <v>82.716049382716051</v>
       </c>
       <c r="H33" s="11">
-        <v>88.751714677640607</v>
+        <v>95.61042524005488</v>
       </c>
       <c r="I33" s="11">
-        <v>95.884773662551439</v>
+        <v>98.353909465020578</v>
       </c>
       <c r="J33" s="11">
-        <v>99.039780521262003</v>
+        <v>99.588477366255148</v>
       </c>
       <c r="K33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1594,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
@@ -1605,31 +1610,31 @@
         <v>1042</v>
       </c>
       <c r="D35" s="13">
-        <v>6.5695731668873343</v>
+        <v>6.5683308119011601</v>
       </c>
       <c r="E35" s="11">
-        <v>14.395393474088291</v>
+        <v>20.249520153550865</v>
       </c>
       <c r="F35" s="11">
-        <v>45.201535508637235</v>
+        <v>59.50095969289827</v>
       </c>
       <c r="G35" s="11">
-        <v>72.456813819577732</v>
+        <v>84.932821497120926</v>
       </c>
       <c r="H35" s="11">
-        <v>89.635316698656425</v>
+        <v>96.545105566218808</v>
       </c>
       <c r="I35" s="11">
-        <v>97.696737044145877</v>
+        <v>99.328214971209221</v>
       </c>
       <c r="J35" s="11">
-        <v>99.712092130518243</v>
+        <v>100</v>
       </c>
       <c r="K35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1660,7 +1665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -1671,31 +1676,31 @@
         <v>1771</v>
       </c>
       <c r="D37" s="13">
-        <v>6.3725666582706637</v>
+        <v>6.3716495772620982</v>
       </c>
       <c r="E37" s="11">
-        <v>15.640880858272164</v>
+        <v>21.626199887069454</v>
       </c>
       <c r="F37" s="11">
-        <v>46.58385093167702</v>
+        <v>60.02258610954263</v>
       </c>
       <c r="G37" s="11">
-        <v>72.783738001129308</v>
+        <v>84.020327498588358</v>
       </c>
       <c r="H37" s="11">
-        <v>89.271597967250145</v>
+        <v>96.160361377752679</v>
       </c>
       <c r="I37" s="11">
-        <v>96.950875211744787</v>
+        <v>98.927159796725022</v>
       </c>
       <c r="J37" s="11">
-        <v>99.435347261434217</v>
+        <v>99.830604178430264</v>
       </c>
       <c r="K37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1726,7 +1731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1739,7 +1744,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -1750,22 +1755,22 @@
         <v>32</v>
       </c>
       <c r="D40" s="13">
-        <v>0.26823134953897737</v>
+        <v>0.26820886765568686</v>
       </c>
       <c r="E40" s="11">
-        <v>12.5</v>
+        <v>21.875</v>
       </c>
       <c r="F40" s="11">
-        <v>34.375</v>
+        <v>43.75</v>
       </c>
       <c r="G40" s="11">
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="H40" s="11">
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
       <c r="I40" s="11">
-        <v>96.875</v>
+        <v>100</v>
       </c>
       <c r="J40" s="11">
         <v>100</v>
@@ -1774,7 +1779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1805,7 +1810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
@@ -1816,19 +1821,19 @@
         <v>54</v>
       </c>
       <c r="D42" s="13">
-        <v>0.34045772649895972</v>
+        <v>0.34039334341906202</v>
       </c>
       <c r="E42" s="11">
-        <v>7.4074074074074066</v>
+        <v>14.814814814814813</v>
       </c>
       <c r="F42" s="11">
-        <v>38.888888888888893</v>
+        <v>62.962962962962962</v>
       </c>
       <c r="G42" s="11">
-        <v>74.074074074074076</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="H42" s="11">
-        <v>94.444444444444443</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="I42" s="11">
         <v>98.148148148148152</v>
@@ -1840,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1871,7 +1876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -1882,22 +1887,22 @@
         <v>86</v>
       </c>
       <c r="D44" s="13">
-        <v>0.30945270051455509</v>
+        <v>0.30940816693649936</v>
       </c>
       <c r="E44" s="11">
-        <v>9.3023255813953494</v>
+        <v>17.441860465116278</v>
       </c>
       <c r="F44" s="11">
-        <v>37.209302325581397</v>
+        <v>55.813953488372093</v>
       </c>
       <c r="G44" s="11">
-        <v>72.093023255813947</v>
+        <v>81.395348837209298</v>
       </c>
       <c r="H44" s="11">
-        <v>91.860465116279073</v>
+        <v>96.511627906976756</v>
       </c>
       <c r="I44" s="11">
-        <v>97.674418604651152</v>
+        <v>98.837209302325576</v>
       </c>
       <c r="J44" s="11">
         <v>100</v>
@@ -1906,7 +1911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1937,7 +1942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1950,7 +1955,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>28</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="15">
@@ -2016,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -2082,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="15">
@@ -2148,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2161,7 +2166,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -2172,31 +2177,31 @@
         <v>277</v>
       </c>
       <c r="D54" s="13">
-        <v>2.3218776194467732</v>
+        <v>2.3216830106445396</v>
       </c>
       <c r="E54" s="11">
-        <v>9.3862815884476536</v>
+        <v>19.494584837545126</v>
       </c>
       <c r="F54" s="11">
-        <v>34.296028880866423</v>
+        <v>51.263537906137181</v>
       </c>
       <c r="G54" s="11">
-        <v>64.981949458483754</v>
+        <v>81.588447653429611</v>
       </c>
       <c r="H54" s="11">
-        <v>84.476534296028888</v>
+        <v>95.667870036101093</v>
       </c>
       <c r="I54" s="11">
-        <v>94.223826714801433</v>
+        <v>99.277978339350184</v>
       </c>
       <c r="J54" s="11">
-        <v>98.555956678700369</v>
+        <v>100</v>
       </c>
       <c r="K54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2227,7 +2232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -2238,22 +2243,22 @@
         <v>69</v>
       </c>
       <c r="D56" s="13">
-        <v>0.43502931719311516</v>
+        <v>0.43494704992435701</v>
       </c>
       <c r="E56" s="11">
-        <v>1.4492753623188406</v>
+        <v>5.7971014492753623</v>
       </c>
       <c r="F56" s="11">
-        <v>23.188405797101449</v>
+        <v>37.681159420289859</v>
       </c>
       <c r="G56" s="11">
-        <v>53.623188405797109</v>
+        <v>68.115942028985515</v>
       </c>
       <c r="H56" s="11">
-        <v>82.608695652173907</v>
+        <v>100</v>
       </c>
       <c r="I56" s="11">
-        <v>94.20289855072464</v>
+        <v>100</v>
       </c>
       <c r="J56" s="11">
         <v>100</v>
@@ -2262,7 +2267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2293,7 +2298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
@@ -2304,31 +2309,31 @@
         <v>346</v>
       </c>
       <c r="D58" s="13">
-        <v>1.2450073764887915</v>
+        <v>1.2448282065119627</v>
       </c>
       <c r="E58" s="11">
-        <v>7.803468208092486</v>
+        <v>16.76300578034682</v>
       </c>
       <c r="F58" s="11">
-        <v>32.080924855491325</v>
+        <v>48.554913294797686</v>
       </c>
       <c r="G58" s="11">
-        <v>62.716763005780351</v>
+        <v>78.901734104046241</v>
       </c>
       <c r="H58" s="11">
-        <v>84.104046242774572</v>
+        <v>96.531791907514446</v>
       </c>
       <c r="I58" s="11">
-        <v>94.219653179190757</v>
+        <v>99.421965317919074</v>
       </c>
       <c r="J58" s="11">
-        <v>98.843930635838149</v>
+        <v>100</v>
       </c>
       <c r="K58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2359,7 +2364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2372,7 +2377,7 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>30</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2438,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2504,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2583,7 +2588,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>31</v>
       </c>
@@ -2594,31 +2599,31 @@
         <v>474</v>
       </c>
       <c r="D68" s="13">
-        <v>3.9731768650461028</v>
+        <v>3.9728438521498619</v>
       </c>
       <c r="E68" s="11">
-        <v>5.2742616033755274</v>
+        <v>8.2278481012658222</v>
       </c>
       <c r="F68" s="11">
-        <v>21.729957805907173</v>
+        <v>34.810126582278485</v>
       </c>
       <c r="G68" s="11">
-        <v>51.898734177215189</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H68" s="11">
-        <v>81.64556962025317</v>
+        <v>91.350210970464133</v>
       </c>
       <c r="I68" s="11">
-        <v>94.514767932489448</v>
+        <v>98.101265822784811</v>
       </c>
       <c r="J68" s="11">
-        <v>99.156118143459921</v>
+        <v>99.789029535864984</v>
       </c>
       <c r="K68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2649,7 +2654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -2660,22 +2665,22 @@
         <v>268</v>
       </c>
       <c r="D70" s="13">
-        <v>1.6896790870689113</v>
+        <v>1.6893595562279373</v>
       </c>
       <c r="E70" s="11">
-        <v>5.9701492537313428</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="F70" s="11">
-        <v>32.835820895522389</v>
+        <v>44.776119402985074</v>
       </c>
       <c r="G70" s="11">
-        <v>64.925373134328353</v>
+        <v>77.985074626865668</v>
       </c>
       <c r="H70" s="11">
-        <v>89.179104477611943</v>
+        <v>95.895522388059703</v>
       </c>
       <c r="I70" s="11">
-        <v>97.761194029850756</v>
+        <v>98.880597014925371</v>
       </c>
       <c r="J70" s="11">
         <v>100</v>
@@ -2684,7 +2689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2715,7 +2720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>21</v>
       </c>
@@ -2726,31 +2731,31 @@
         <v>742</v>
       </c>
       <c r="D72" s="13">
-        <v>2.6699291137418593</v>
+        <v>2.669544882173053</v>
       </c>
       <c r="E72" s="11">
-        <v>5.5256064690026951</v>
+        <v>9.0296495956873315</v>
       </c>
       <c r="F72" s="11">
-        <v>25.741239892183287</v>
+        <v>38.409703504043122</v>
       </c>
       <c r="G72" s="11">
-        <v>56.60377358490566</v>
+        <v>70.754716981132077</v>
       </c>
       <c r="H72" s="11">
-        <v>84.366576819407015</v>
+        <v>92.991913746630729</v>
       </c>
       <c r="I72" s="11">
-        <v>95.687331536388143</v>
+        <v>98.382749326145557</v>
       </c>
       <c r="J72" s="11">
-        <v>99.460916442048514</v>
+        <v>99.865229110512132</v>
       </c>
       <c r="K72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2781,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2794,7 +2799,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -2805,19 +2810,19 @@
         <v>88</v>
       </c>
       <c r="D75" s="13">
-        <v>0.7376362112321877</v>
+        <v>0.73757438605313885</v>
       </c>
       <c r="E75" s="11">
-        <v>3.4090909090909087</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="F75" s="11">
-        <v>27.27272727272727</v>
+        <v>37.5</v>
       </c>
       <c r="G75" s="11">
-        <v>71.590909090909093</v>
+        <v>82.954545454545453</v>
       </c>
       <c r="H75" s="11">
-        <v>95.454545454545453</v>
+        <v>100</v>
       </c>
       <c r="I75" s="11">
         <v>100</v>
@@ -2829,7 +2834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2860,7 +2865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -2871,22 +2876,22 @@
         <v>249</v>
       </c>
       <c r="D77" s="13">
-        <v>1.5698884055229809</v>
+        <v>1.5695915279878971</v>
       </c>
       <c r="E77" s="11">
-        <v>9.236947791164658</v>
+        <v>20.080321285140563</v>
       </c>
       <c r="F77" s="11">
-        <v>40.160642570281126</v>
+        <v>61.847389558232933</v>
       </c>
       <c r="G77" s="11">
-        <v>79.518072289156621</v>
+        <v>94.377510040160644</v>
       </c>
       <c r="H77" s="11">
-        <v>96.787148594377513</v>
+        <v>100</v>
       </c>
       <c r="I77" s="11">
-        <v>99.598393574297177</v>
+        <v>100</v>
       </c>
       <c r="J77" s="11">
         <v>100</v>
@@ -2895,7 +2900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2926,7 +2931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -2937,22 +2942,22 @@
         <v>337</v>
       </c>
       <c r="D79" s="13">
-        <v>1.2126227915512215</v>
+        <v>1.2124482820651197</v>
       </c>
       <c r="E79" s="11">
-        <v>7.71513353115727</v>
+        <v>17.210682492581604</v>
       </c>
       <c r="F79" s="11">
-        <v>36.795252225519285</v>
+        <v>55.489614243323437</v>
       </c>
       <c r="G79" s="11">
-        <v>77.448071216617208</v>
+        <v>91.394658753709194</v>
       </c>
       <c r="H79" s="11">
-        <v>96.439169139465875</v>
+        <v>100</v>
       </c>
       <c r="I79" s="11">
-        <v>99.703264094955486</v>
+        <v>100</v>
       </c>
       <c r="J79" s="11">
         <v>100</v>
@@ -2961,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -2992,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -3005,7 +3010,7 @@
       <c r="J81" s="16"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>33</v>
       </c>
@@ -3016,31 +3021,31 @@
         <v>191</v>
       </c>
       <c r="D82" s="13">
-        <v>1.6010058675607712</v>
+        <v>1.6008716788198811</v>
       </c>
       <c r="E82" s="11">
-        <v>8.9005235602094235</v>
+        <v>13.089005235602095</v>
       </c>
       <c r="F82" s="11">
-        <v>32.460732984293195</v>
+        <v>47.643979057591622</v>
       </c>
       <c r="G82" s="11">
-        <v>63.874345549738223</v>
+        <v>75.392670157068068</v>
       </c>
       <c r="H82" s="11">
-        <v>87.958115183246079</v>
+        <v>94.764397905759154</v>
       </c>
       <c r="I82" s="11">
-        <v>96.858638743455501</v>
+        <v>97.905759162303667</v>
       </c>
       <c r="J82" s="11">
-        <v>98.952879581151834</v>
+        <v>99.476439790575924</v>
       </c>
       <c r="K82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -3071,7 +3076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -3082,19 +3087,19 @@
         <v>101</v>
       </c>
       <c r="D84" s="13">
-        <v>0.63678204400731353</v>
+        <v>0.63666162380231972</v>
       </c>
       <c r="E84" s="11">
-        <v>6.9306930693069315</v>
+        <v>15.841584158415841</v>
       </c>
       <c r="F84" s="11">
-        <v>35.64356435643564</v>
+        <v>48.514851485148512</v>
       </c>
       <c r="G84" s="11">
-        <v>66.336633663366342</v>
+        <v>82.178217821782169</v>
       </c>
       <c r="H84" s="11">
-        <v>90.099009900990097</v>
+        <v>95.049504950495049</v>
       </c>
       <c r="I84" s="11">
         <v>100</v>
@@ -3106,7 +3111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -3137,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>21</v>
       </c>
@@ -3148,31 +3153,31 @@
         <v>292</v>
       </c>
       <c r="D86" s="13">
-        <v>1.0506998668633729</v>
+        <v>1.0505486598309048</v>
       </c>
       <c r="E86" s="11">
-        <v>8.2191780821917799</v>
+        <v>14.04109589041096</v>
       </c>
       <c r="F86" s="11">
-        <v>33.561643835616437</v>
+        <v>47.945205479452049</v>
       </c>
       <c r="G86" s="11">
-        <v>64.726027397260282</v>
+        <v>77.739726027397253</v>
       </c>
       <c r="H86" s="11">
-        <v>88.698630136986296</v>
+        <v>94.863013698630141</v>
       </c>
       <c r="I86" s="11">
-        <v>97.945205479452056</v>
+        <v>98.630136986301366</v>
       </c>
       <c r="J86" s="11">
-        <v>99.315068493150676</v>
+        <v>99.657534246575338</v>
       </c>
       <c r="K86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -3203,7 +3208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -3216,7 +3221,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
@@ -3227,19 +3232,19 @@
         <v>12</v>
       </c>
       <c r="D89" s="13">
-        <v>0.10058675607711651</v>
+        <v>0.10057832537088257</v>
       </c>
       <c r="E89" s="11">
-        <v>0</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="F89" s="11">
-        <v>16.666666666666664</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G89" s="11">
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H89" s="11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I89" s="11">
         <v>100</v>
@@ -3251,7 +3256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3282,7 +3287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>21</v>
       </c>
@@ -3293,22 +3298,22 @@
         <v>19</v>
       </c>
       <c r="D91" s="13">
-        <v>0.11979068154593026</v>
+        <v>0.11976802824004035</v>
       </c>
       <c r="E91" s="11">
-        <v>0</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="F91" s="11">
-        <v>15.789473684210526</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="G91" s="11">
-        <v>42.105263157894733</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="H91" s="11">
-        <v>89.473684210526315</v>
+        <v>100</v>
       </c>
       <c r="I91" s="11">
-        <v>94.73684210526315</v>
+        <v>100</v>
       </c>
       <c r="J91" s="11">
         <v>100</v>
@@ -3317,7 +3322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3348,7 +3353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>21</v>
       </c>
@@ -3359,22 +3364,22 @@
         <v>31</v>
       </c>
       <c r="D93" s="13">
-        <v>0.11154690367385124</v>
+        <v>0.11153085087245909</v>
       </c>
       <c r="E93" s="11">
-        <v>0</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="F93" s="11">
-        <v>16.129032258064516</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="G93" s="11">
-        <v>45.161290322580641</v>
+        <v>74.193548387096769</v>
       </c>
       <c r="H93" s="11">
-        <v>83.870967741935488</v>
+        <v>100</v>
       </c>
       <c r="I93" s="11">
-        <v>96.774193548387103</v>
+        <v>100</v>
       </c>
       <c r="J93" s="11">
         <v>100</v>
@@ -3383,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3414,7 +3419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3427,7 +3432,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>35</v>
       </c>
@@ -3438,31 +3443,31 @@
         <v>376</v>
       </c>
       <c r="D96" s="13">
-        <v>3.1517183570829839</v>
+        <v>3.1514541949543209</v>
       </c>
       <c r="E96" s="11">
-        <v>7.7127659574468082</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="F96" s="11">
-        <v>20.74468085106383</v>
+        <v>30.319148936170215</v>
       </c>
       <c r="G96" s="11">
-        <v>52.659574468085104</v>
+        <v>65.159574468085097</v>
       </c>
       <c r="H96" s="11">
-        <v>81.38297872340425</v>
+        <v>92.553191489361694</v>
       </c>
       <c r="I96" s="11">
-        <v>96.542553191489361</v>
+        <v>98.936170212765958</v>
       </c>
       <c r="J96" s="11">
-        <v>99.468085106382972</v>
+        <v>99.7340425531915</v>
       </c>
       <c r="K96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3493,7 +3498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>21</v>
       </c>
@@ -3504,31 +3509,31 @@
         <v>1322</v>
       </c>
       <c r="D98" s="13">
-        <v>8.33490952651157</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="E98" s="11">
-        <v>10.136157337367626</v>
+        <v>14.447806354009076</v>
       </c>
       <c r="F98" s="11">
-        <v>29.046898638426626</v>
+        <v>40.771558245083206</v>
       </c>
       <c r="G98" s="11">
-        <v>63.313161875945532</v>
+        <v>75.794251134644469</v>
       </c>
       <c r="H98" s="11">
-        <v>88.72919818456883</v>
+        <v>96.066565809379725</v>
       </c>
       <c r="I98" s="11">
-        <v>98.260211800302571</v>
+        <v>99.243570347957643</v>
       </c>
       <c r="J98" s="11">
-        <v>99.773071104387284</v>
+        <v>100</v>
       </c>
       <c r="K98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3559,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
@@ -3570,31 +3575,31 @@
         <v>1698</v>
       </c>
       <c r="D100" s="13">
-        <v>6.1098916915548198</v>
+        <v>6.109012412304371</v>
       </c>
       <c r="E100" s="11">
-        <v>9.5995288574793882</v>
+        <v>13.604240282685511</v>
       </c>
       <c r="F100" s="11">
-        <v>27.208480565371023</v>
+        <v>38.457008244994114</v>
       </c>
       <c r="G100" s="11">
-        <v>60.954063604240282</v>
+        <v>73.439340400471139</v>
       </c>
       <c r="H100" s="11">
-        <v>87.102473498233209</v>
+        <v>95.288574793875142</v>
       </c>
       <c r="I100" s="11">
-        <v>97.879858657243815</v>
+        <v>99.175500588928159</v>
       </c>
       <c r="J100" s="11">
-        <v>99.705535924617195</v>
+        <v>99.941107184923439</v>
       </c>
       <c r="K100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3625,7 +3630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3638,7 +3643,7 @@
       <c r="J102" s="16"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>36</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="13">
-        <v>0.1173512154233026</v>
+        <v>0.117341379599363</v>
       </c>
       <c r="E103" s="11">
         <v>0</v>
@@ -3661,7 +3666,7 @@
         <v>35.714285714285715</v>
       </c>
       <c r="H103" s="11">
-        <v>78.571428571428569</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I103" s="11">
         <v>100</v>
@@ -3673,7 +3678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3704,7 +3709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>21</v>
       </c>
@@ -3715,19 +3720,19 @@
         <v>19</v>
       </c>
       <c r="D105" s="13">
-        <v>0.11979068154593026</v>
+        <v>0.11976802824004035</v>
       </c>
       <c r="E105" s="11">
         <v>0</v>
       </c>
       <c r="F105" s="11">
-        <v>5.2631578947368416</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="G105" s="11">
-        <v>26.315789473684209</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="H105" s="11">
-        <v>68.421052631578945</v>
+        <v>84.210526315789465</v>
       </c>
       <c r="I105" s="11">
         <v>89.473684210526315</v>
@@ -3739,7 +3744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3770,7 +3775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>21</v>
       </c>
@@ -3781,19 +3786,19 @@
         <v>33</v>
       </c>
       <c r="D107" s="13">
-        <v>0.1187434781044223</v>
+        <v>0.11872638963842418</v>
       </c>
       <c r="E107" s="11">
         <v>0</v>
       </c>
       <c r="F107" s="11">
-        <v>9.0909090909090917</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="G107" s="11">
-        <v>30.303030303030305</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="H107" s="11">
-        <v>72.727272727272734</v>
+        <v>84.848484848484844</v>
       </c>
       <c r="I107" s="11">
         <v>93.939393939393938</v>
@@ -3805,7 +3810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3836,7 +3841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3849,7 +3854,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>37</v>
       </c>
@@ -3860,22 +3865,22 @@
         <v>91</v>
       </c>
       <c r="D110" s="13">
-        <v>0.76278290025146689</v>
+        <v>0.76271896739585954</v>
       </c>
       <c r="E110" s="11">
-        <v>15.384615384615385</v>
+        <v>19.780219780219781</v>
       </c>
       <c r="F110" s="11">
-        <v>46.153846153846153</v>
+        <v>60.439560439560438</v>
       </c>
       <c r="G110" s="11">
-        <v>78.021978021978029</v>
+        <v>83.516483516483518</v>
       </c>
       <c r="H110" s="11">
-        <v>93.406593406593402</v>
+        <v>96.703296703296701</v>
       </c>
       <c r="I110" s="11">
-        <v>96.703296703296701</v>
+        <v>98.901098901098905</v>
       </c>
       <c r="J110" s="11">
         <v>100</v>
@@ -3884,7 +3889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3915,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>21</v>
       </c>
@@ -3926,22 +3931,22 @@
         <v>242</v>
       </c>
       <c r="D112" s="13">
-        <v>1.5257549965323751</v>
+        <v>1.5254664649520928</v>
       </c>
       <c r="E112" s="11">
-        <v>13.636363636363635</v>
+        <v>21.074380165289256</v>
       </c>
       <c r="F112" s="11">
-        <v>44.214876033057855</v>
+        <v>64.462809917355372</v>
       </c>
       <c r="G112" s="11">
-        <v>78.925619834710744</v>
+        <v>88.429752066115711</v>
       </c>
       <c r="H112" s="11">
-        <v>93.388429752066116</v>
+        <v>98.760330578512395</v>
       </c>
       <c r="I112" s="11">
-        <v>99.586776859504127</v>
+        <v>100</v>
       </c>
       <c r="J112" s="11">
         <v>100</v>
@@ -3950,7 +3955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -3981,7 +3986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>21</v>
       </c>
@@ -3992,22 +3997,22 @@
         <v>333</v>
       </c>
       <c r="D114" s="13">
-        <v>1.1982296426900796</v>
+        <v>1.1980572045331894</v>
       </c>
       <c r="E114" s="11">
-        <v>14.114114114114114</v>
+        <v>20.72072072072072</v>
       </c>
       <c r="F114" s="11">
-        <v>44.74474474474475</v>
+        <v>63.363363363363369</v>
       </c>
       <c r="G114" s="11">
-        <v>78.678678678678679</v>
+        <v>87.087087087087085</v>
       </c>
       <c r="H114" s="11">
-        <v>93.393393393393396</v>
+        <v>98.198198198198199</v>
       </c>
       <c r="I114" s="11">
-        <v>98.798798798798799</v>
+        <v>99.699699699699693</v>
       </c>
       <c r="J114" s="11">
         <v>100</v>
@@ -4016,7 +4021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -4047,7 +4052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -4060,7 +4065,7 @@
       <c r="J116" s="16"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>38</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -4126,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -4192,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>21</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -4258,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -4271,7 +4276,7 @@
       <c r="J123" s="16"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>39</v>
       </c>
@@ -4282,31 +4287,31 @@
         <v>632</v>
       </c>
       <c r="D124" s="13">
-        <v>5.2975691533948028</v>
+        <v>5.2971251361998162</v>
       </c>
       <c r="E124" s="11">
-        <v>4.5886075949367093</v>
+        <v>8.2278481012658222</v>
       </c>
       <c r="F124" s="11">
-        <v>23.259493670886076</v>
+        <v>32.911392405063289</v>
       </c>
       <c r="G124" s="11">
-        <v>57.120253164556964</v>
+        <v>68.512658227848107</v>
       </c>
       <c r="H124" s="11">
-        <v>83.860759493670884</v>
+        <v>92.721518987341767</v>
       </c>
       <c r="I124" s="11">
-        <v>97.310126582278471</v>
+        <v>98.89240506329115</v>
       </c>
       <c r="J124" s="11">
-        <v>99.050632911392398</v>
+        <v>99.525316455696199</v>
       </c>
       <c r="K124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4337,7 +4342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
@@ -4348,31 +4353,31 @@
         <v>904</v>
       </c>
       <c r="D126" s="13">
-        <v>5.6995145325011034</v>
+        <v>5.6984367120524464</v>
       </c>
       <c r="E126" s="11">
-        <v>10.951327433628318</v>
+        <v>17.477876106194689</v>
       </c>
       <c r="F126" s="11">
-        <v>37.721238938053098</v>
+        <v>50.221238938053091</v>
       </c>
       <c r="G126" s="11">
-        <v>72.898230088495581</v>
+        <v>82.964601769911511</v>
       </c>
       <c r="H126" s="11">
-        <v>90.707964601769902</v>
+        <v>96.570796460176993</v>
       </c>
       <c r="I126" s="11">
-        <v>98.672566371681413</v>
+        <v>99.557522123893804</v>
       </c>
       <c r="J126" s="11">
-        <v>99.889380530973455</v>
+        <v>100</v>
       </c>
       <c r="K126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4403,7 +4408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>21</v>
       </c>
@@ -4414,31 +4419,31 @@
         <v>1536</v>
       </c>
       <c r="D128" s="13">
-        <v>5.5269691626785651</v>
+        <v>5.5261737722611981</v>
       </c>
       <c r="E128" s="11">
-        <v>8.3333333333333321</v>
+        <v>13.671875</v>
       </c>
       <c r="F128" s="11">
-        <v>31.770833333333332</v>
+        <v>43.098958333333329</v>
       </c>
       <c r="G128" s="11">
-        <v>66.40625</v>
+        <v>77.018229166666657</v>
       </c>
       <c r="H128" s="11">
-        <v>87.890625</v>
+        <v>94.986979166666657</v>
       </c>
       <c r="I128" s="11">
-        <v>98.111979166666657</v>
+        <v>99.283854166666657</v>
       </c>
       <c r="J128" s="11">
-        <v>99.544270833333343</v>
+        <v>99.8046875</v>
       </c>
       <c r="K128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4469,7 +4474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4482,7 +4487,7 @@
       <c r="J130" s="16"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>40</v>
       </c>
@@ -4493,19 +4498,19 @@
         <v>37</v>
       </c>
       <c r="D131" s="13">
-        <v>0.31014249790444259</v>
+        <v>0.31011650322688794</v>
       </c>
       <c r="E131" s="11">
-        <v>16.216216216216218</v>
+        <v>18.918918918918919</v>
       </c>
       <c r="F131" s="11">
-        <v>37.837837837837839</v>
+        <v>59.45945945945946</v>
       </c>
       <c r="G131" s="11">
-        <v>81.081081081081081</v>
+        <v>94.594594594594597</v>
       </c>
       <c r="H131" s="11">
-        <v>97.297297297297305</v>
+        <v>100</v>
       </c>
       <c r="I131" s="11">
         <v>100</v>
@@ -4517,7 +4522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4548,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>21</v>
       </c>
@@ -4559,19 +4564,19 @@
         <v>53</v>
       </c>
       <c r="D133" s="13">
-        <v>0.334152953786016</v>
+        <v>0.33408976298537568</v>
       </c>
       <c r="E133" s="11">
-        <v>26.415094339622641</v>
+        <v>39.622641509433961</v>
       </c>
       <c r="F133" s="11">
-        <v>62.264150943396224</v>
+        <v>69.811320754716974</v>
       </c>
       <c r="G133" s="11">
-        <v>84.905660377358487</v>
+        <v>92.452830188679243</v>
       </c>
       <c r="H133" s="11">
-        <v>96.226415094339629</v>
+        <v>100</v>
       </c>
       <c r="I133" s="11">
         <v>100</v>
@@ -4583,7 +4588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4614,7 +4619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>21</v>
       </c>
@@ -4625,19 +4630,19 @@
         <v>90</v>
       </c>
       <c r="D135" s="13">
-        <v>0.32384584937569716</v>
+        <v>0.32379924446842956</v>
       </c>
       <c r="E135" s="11">
-        <v>22.222222222222221</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="F135" s="11">
-        <v>52.222222222222229</v>
+        <v>65.555555555555557</v>
       </c>
       <c r="G135" s="11">
-        <v>83.333333333333343</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="H135" s="11">
-        <v>96.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="I135" s="11">
         <v>100</v>
@@ -4649,7 +4654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4680,7 +4685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4693,7 +4698,7 @@
       <c r="J137" s="16"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>41</v>
       </c>
@@ -4704,31 +4709,31 @@
         <v>872</v>
       </c>
       <c r="D138" s="13">
-        <v>7.3093042749371326</v>
+        <v>7.3086916436174665</v>
       </c>
       <c r="E138" s="11">
-        <v>3.4403669724770642</v>
+        <v>8.8302752293577988</v>
       </c>
       <c r="F138" s="11">
-        <v>21.559633027522938</v>
+        <v>32.798165137614674</v>
       </c>
       <c r="G138" s="11">
-        <v>55.733944954128447</v>
+        <v>72.591743119266056</v>
       </c>
       <c r="H138" s="11">
-        <v>83.37155963302753</v>
+        <v>94.266055045871553</v>
       </c>
       <c r="I138" s="11">
-        <v>95.183486238532112</v>
+        <v>99.426605504587144</v>
       </c>
       <c r="J138" s="11">
-        <v>99.311926605504581</v>
+        <v>100</v>
       </c>
       <c r="K138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4759,7 +4764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>21</v>
       </c>
@@ -4770,31 +4775,31 @@
         <v>840</v>
       </c>
       <c r="D140" s="13">
-        <v>5.2960090788727063</v>
+        <v>5.2950075642965198</v>
       </c>
       <c r="E140" s="11">
-        <v>8.3333333333333321</v>
+        <v>13.690476190476192</v>
       </c>
       <c r="F140" s="11">
-        <v>31.30952380952381</v>
+        <v>44.523809523809518</v>
       </c>
       <c r="G140" s="11">
-        <v>63.452380952380949</v>
+        <v>76.428571428571416</v>
       </c>
       <c r="H140" s="11">
-        <v>84.047619047619051</v>
+        <v>95.595238095238102</v>
       </c>
       <c r="I140" s="11">
-        <v>95.11904761904762</v>
+        <v>98.80952380952381</v>
       </c>
       <c r="J140" s="11">
-        <v>99.166666666666671</v>
+        <v>99.523809523809518</v>
       </c>
       <c r="K140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4825,7 +4830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>21</v>
       </c>
@@ -4836,31 +4841,31 @@
         <v>1712</v>
       </c>
       <c r="D142" s="13">
-        <v>6.1602677125688166</v>
+        <v>6.1593811836661274</v>
       </c>
       <c r="E142" s="11">
-        <v>5.8411214953271031</v>
+        <v>11.214953271028037</v>
       </c>
       <c r="F142" s="11">
-        <v>26.343457943925237</v>
+        <v>38.55140186915888</v>
       </c>
       <c r="G142" s="11">
-        <v>59.521028037383175</v>
+        <v>74.474299065420553</v>
       </c>
       <c r="H142" s="11">
-        <v>83.703271028037392</v>
+        <v>94.918224299065429</v>
       </c>
       <c r="I142" s="11">
-        <v>95.151869158878498</v>
+        <v>99.123831775700936</v>
       </c>
       <c r="J142" s="11">
-        <v>99.240654205607484</v>
+        <v>99.766355140186917</v>
       </c>
       <c r="K142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4891,7 +4896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4904,7 +4909,7 @@
       <c r="J144" s="16"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>42</v>
       </c>
@@ -4915,31 +4920,31 @@
         <v>552</v>
       </c>
       <c r="D145" s="13">
-        <v>4.6269907795473593</v>
+        <v>4.6266029670605988</v>
       </c>
       <c r="E145" s="11">
-        <v>3.9855072463768111</v>
+        <v>7.0652173913043477</v>
       </c>
       <c r="F145" s="11">
-        <v>17.934782608695652</v>
+        <v>30.978260869565215</v>
       </c>
       <c r="G145" s="11">
-        <v>43.659420289855071</v>
+        <v>64.492753623188406</v>
       </c>
       <c r="H145" s="11">
-        <v>71.376811594202891</v>
+        <v>90.036231884057969</v>
       </c>
       <c r="I145" s="11">
-        <v>87.681159420289859</v>
+        <v>98.369565217391312</v>
       </c>
       <c r="J145" s="11">
-        <v>96.55797101449275</v>
+        <v>100</v>
       </c>
       <c r="K145" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -4970,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>21</v>
       </c>
@@ -4981,31 +4986,31 @@
         <v>319</v>
       </c>
       <c r="D147" s="13">
-        <v>2.0112224954290396</v>
+        <v>2.0108421583459402</v>
       </c>
       <c r="E147" s="11">
-        <v>6.5830721003134789</v>
+        <v>11.285266457680251</v>
       </c>
       <c r="F147" s="11">
-        <v>23.824451410658305</v>
+        <v>35.736677115987462</v>
       </c>
       <c r="G147" s="11">
-        <v>47.335423197492169</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="H147" s="11">
-        <v>74.921630094043891</v>
+        <v>92.163009404388717</v>
       </c>
       <c r="I147" s="11">
-        <v>90.595611285266457</v>
+        <v>98.119122257053291</v>
       </c>
       <c r="J147" s="11">
-        <v>97.805642633228842</v>
+        <v>99.686520376175551</v>
       </c>
       <c r="K147" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -5036,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>21</v>
       </c>
@@ -5047,31 +5052,31 @@
         <v>871</v>
       </c>
       <c r="D149" s="13">
-        <v>3.1341081645136915</v>
+        <v>3.1336571325778015</v>
       </c>
       <c r="E149" s="11">
-        <v>4.9368541905855334</v>
+        <v>8.6107921928817461</v>
       </c>
       <c r="F149" s="11">
-        <v>20.091848450057405</v>
+        <v>32.721010332950634</v>
       </c>
       <c r="G149" s="11">
-        <v>45.005740528128591</v>
+        <v>66.130884041331811</v>
       </c>
       <c r="H149" s="11">
-        <v>72.675086107921928</v>
+        <v>90.815154994259473</v>
       </c>
       <c r="I149" s="11">
-        <v>88.748564867967843</v>
+        <v>98.277841561423656</v>
       </c>
       <c r="J149" s="11">
-        <v>97.014925373134332</v>
+        <v>99.885189437428252</v>
       </c>
       <c r="K149" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -5102,7 +5107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -5115,7 +5120,7 @@
       <c r="J151" s="16"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>43</v>
       </c>
@@ -5126,31 +5131,31 @@
         <v>92</v>
       </c>
       <c r="D152" s="13">
-        <v>0.77116512992455999</v>
+        <v>0.77110049451009965</v>
       </c>
       <c r="E152" s="11">
-        <v>5.4347826086956523</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="F152" s="11">
-        <v>44.565217391304344</v>
+        <v>58.695652173913047</v>
       </c>
       <c r="G152" s="11">
-        <v>77.173913043478265</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="H152" s="11">
-        <v>89.130434782608688</v>
+        <v>94.565217391304344</v>
       </c>
       <c r="I152" s="11">
-        <v>93.478260869565219</v>
+        <v>94.565217391304344</v>
       </c>
       <c r="J152" s="11">
-        <v>95.652173913043484</v>
+        <v>98.91304347826086</v>
       </c>
       <c r="K152" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -5181,7 +5186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>21</v>
       </c>
@@ -5192,31 +5197,31 @@
         <v>223</v>
       </c>
       <c r="D154" s="13">
-        <v>1.4059643149864447</v>
+        <v>1.4056984367120524</v>
       </c>
       <c r="E154" s="11">
-        <v>11.659192825112108</v>
+        <v>21.973094170403588</v>
       </c>
       <c r="F154" s="11">
-        <v>57.399103139013455</v>
+        <v>68.161434977578466</v>
       </c>
       <c r="G154" s="11">
-        <v>85.650224215246638</v>
+        <v>91.928251121076229</v>
       </c>
       <c r="H154" s="11">
-        <v>96.860986547085204</v>
+        <v>98.654708520179369</v>
       </c>
       <c r="I154" s="11">
-        <v>98.654708520179369</v>
+        <v>99.551569506726452</v>
       </c>
       <c r="J154" s="11">
-        <v>99.551569506726452</v>
+        <v>100</v>
       </c>
       <c r="K154" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -5247,7 +5252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>21</v>
       </c>
@@ -5258,31 +5263,31 @@
         <v>315</v>
       </c>
       <c r="D156" s="13">
-        <v>1.1334604728149402</v>
+        <v>1.1332973556395036</v>
       </c>
       <c r="E156" s="11">
-        <v>9.8412698412698418</v>
+        <v>21.904761904761905</v>
       </c>
       <c r="F156" s="11">
-        <v>53.650793650793652</v>
+        <v>65.396825396825392</v>
       </c>
       <c r="G156" s="11">
-        <v>83.174603174603178</v>
+        <v>90.476190476190482</v>
       </c>
       <c r="H156" s="11">
-        <v>94.603174603174594</v>
+        <v>97.460317460317455</v>
       </c>
       <c r="I156" s="11">
-        <v>97.142857142857139</v>
+        <v>98.095238095238088</v>
       </c>
       <c r="J156" s="11">
-        <v>98.412698412698404</v>
+        <v>99.682539682539684</v>
       </c>
       <c r="K156" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -5313,7 +5318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -5326,7 +5331,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>44</v>
       </c>
@@ -5337,7 +5342,7 @@
         <v>7</v>
       </c>
       <c r="D159" s="13">
-        <v>5.8675607711651298E-2</v>
+        <v>5.86706897996815E-2</v>
       </c>
       <c r="E159" s="11">
         <v>0</v>
@@ -5346,7 +5351,7 @@
         <v>14.285714285714285</v>
       </c>
       <c r="G159" s="11">
-        <v>28.571428571428569</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="H159" s="11">
         <v>57.142857142857139</v>
@@ -5355,13 +5360,13 @@
         <v>85.714285714285708</v>
       </c>
       <c r="J159" s="11">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="K159" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="15">
@@ -5392,7 +5397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>21</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="D161" s="13">
-        <v>4.4133408990605888E-2</v>
+        <v>4.4125063035804338E-2</v>
       </c>
       <c r="E161" s="11">
         <v>0</v>
@@ -5412,10 +5417,10 @@
         <v>14.285714285714285</v>
       </c>
       <c r="G161" s="11">
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="H161" s="11">
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I161" s="11">
         <v>71.428571428571431</v>
@@ -5427,7 +5432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="15">
@@ -5458,7 +5463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>21</v>
       </c>
@@ -5469,7 +5474,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="13">
-        <v>5.0376021013997338E-2</v>
+        <v>5.0368771361755715E-2</v>
       </c>
       <c r="E163" s="11">
         <v>0</v>
@@ -5478,22 +5483,22 @@
         <v>14.285714285714285</v>
       </c>
       <c r="G163" s="11">
-        <v>42.857142857142854</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="H163" s="11">
-        <v>57.142857142857139</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="I163" s="11">
         <v>78.571428571428569</v>
       </c>
       <c r="J163" s="11">
-        <v>85.714285714285708</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="K163" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="15">
@@ -5524,7 +5529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5537,7 +5542,7 @@
       <c r="J165" s="16"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>45</v>
       </c>
@@ -5548,31 +5553,31 @@
         <v>1645</v>
       </c>
       <c r="D166" s="13">
-        <v>13.788767812238056</v>
+        <v>13.787612102925154</v>
       </c>
       <c r="E166" s="11">
-        <v>20.486322188449847</v>
+        <v>26.079027355623101</v>
       </c>
       <c r="F166" s="11">
-        <v>49.908814589665653</v>
+        <v>58.662613981762924</v>
       </c>
       <c r="G166" s="11">
-        <v>74.103343465045583</v>
+        <v>82.249240121580542</v>
       </c>
       <c r="H166" s="11">
-        <v>88.145896656534944</v>
+        <v>94.832826747720361</v>
       </c>
       <c r="I166" s="11">
-        <v>96.77811550151975</v>
+        <v>98.905775075987847</v>
       </c>
       <c r="J166" s="11">
-        <v>99.209726443769</v>
+        <v>99.817629179331306</v>
       </c>
       <c r="K166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5603,7 +5608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>21</v>
       </c>
@@ -5611,34 +5616,34 @@
         <v>22</v>
       </c>
       <c r="C168" s="9">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D168" s="13">
-        <v>8.2781665720950759</v>
+        <v>8.2829046898638428</v>
       </c>
       <c r="E168" s="11">
-        <v>20.335110434120335</v>
+        <v>25.951293759512939</v>
       </c>
       <c r="F168" s="11">
-        <v>55.217060167555218</v>
+        <v>64.459665144596656</v>
       </c>
       <c r="G168" s="11">
-        <v>81.26428027418126</v>
+        <v>88.584474885844742</v>
       </c>
       <c r="H168" s="11">
-        <v>92.536176694592527</v>
+        <v>97.640791476407912</v>
       </c>
       <c r="I168" s="11">
-        <v>98.7052551408987</v>
+        <v>99.771689497716892</v>
       </c>
       <c r="J168" s="11">
-        <v>99.771515613099766</v>
+        <v>99.923896499238964</v>
       </c>
       <c r="K168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5669,7 +5674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>21</v>
       </c>
@@ -5677,34 +5682,34 @@
         <v>23</v>
       </c>
       <c r="C170" s="9">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D170" s="13">
-        <v>10.64373358281458</v>
+        <v>10.645799604245369</v>
       </c>
       <c r="E170" s="11">
-        <v>20.419202163624071</v>
+        <v>26.022304832713754</v>
       </c>
       <c r="F170" s="11">
-        <v>52.265043948613929</v>
+        <v>61.236904359580933</v>
       </c>
       <c r="G170" s="11">
-        <v>77.281947261663291</v>
+        <v>85.062521122000675</v>
       </c>
       <c r="H170" s="11">
-        <v>90.0946585530764</v>
+        <v>96.079756674552215</v>
       </c>
       <c r="I170" s="11">
-        <v>97.633536173089936</v>
+        <v>99.290300777289616</v>
       </c>
       <c r="J170" s="11">
-        <v>99.459093982420555</v>
+        <v>99.864819195674215</v>
       </c>
       <c r="K170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5735,7 +5740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5748,7 +5753,7 @@
       <c r="J172" s="16"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>46</v>
       </c>
@@ -5759,19 +5764,19 @@
         <v>111</v>
       </c>
       <c r="D173" s="13">
-        <v>0.93042749371332767</v>
+        <v>0.93034950968066377</v>
       </c>
       <c r="E173" s="11">
-        <v>63.963963963963963</v>
+        <v>71.171171171171167</v>
       </c>
       <c r="F173" s="11">
-        <v>85.585585585585591</v>
+        <v>93.693693693693689</v>
       </c>
       <c r="G173" s="11">
-        <v>98.198198198198199</v>
+        <v>99.099099099099092</v>
       </c>
       <c r="H173" s="11">
-        <v>99.099099099099092</v>
+        <v>100</v>
       </c>
       <c r="I173" s="11">
         <v>100</v>
@@ -5783,7 +5788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5814,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
@@ -5825,16 +5830,16 @@
         <v>44</v>
       </c>
       <c r="D175" s="13">
-        <v>0.27740999936952271</v>
+        <v>0.27735753908219873</v>
       </c>
       <c r="E175" s="11">
-        <v>59.090909090909093</v>
+        <v>61.363636363636367</v>
       </c>
       <c r="F175" s="11">
-        <v>86.36363636363636</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="G175" s="11">
-        <v>95.454545454545453</v>
+        <v>100</v>
       </c>
       <c r="H175" s="11">
         <v>100</v>
@@ -5849,7 +5854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5880,7 +5885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>21</v>
       </c>
@@ -5891,19 +5896,19 @@
         <v>155</v>
       </c>
       <c r="D177" s="13">
-        <v>0.55773451836925625</v>
+        <v>0.55765425436229532</v>
       </c>
       <c r="E177" s="11">
-        <v>62.580645161290327</v>
+        <v>68.387096774193552</v>
       </c>
       <c r="F177" s="11">
-        <v>85.806451612903217</v>
+        <v>92.903225806451616</v>
       </c>
       <c r="G177" s="11">
-        <v>97.41935483870968</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="H177" s="11">
-        <v>99.354838709677423</v>
+        <v>100</v>
       </c>
       <c r="I177" s="11">
         <v>100</v>
@@ -5915,7 +5920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5946,7 +5951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5959,7 +5964,7 @@
       <c r="J179" s="16"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>47</v>
       </c>
@@ -5970,31 +5975,31 @@
         <v>527</v>
       </c>
       <c r="D180" s="13">
-        <v>4.4174350377200335</v>
+        <v>4.4170647892045931</v>
       </c>
       <c r="E180" s="11">
-        <v>2.4667931688804554</v>
+        <v>5.5028462998102468</v>
       </c>
       <c r="F180" s="11">
-        <v>16.318785578747626</v>
+        <v>28.652751423149901</v>
       </c>
       <c r="G180" s="11">
-        <v>57.685009487666036</v>
+        <v>67.931688804554085</v>
       </c>
       <c r="H180" s="11">
-        <v>84.250474383301707</v>
+        <v>92.979127134724862</v>
       </c>
       <c r="I180" s="11">
-        <v>96.204933586337759</v>
+        <v>99.051233396584436</v>
       </c>
       <c r="J180" s="11">
-        <v>99.430740037950656</v>
+        <v>100</v>
       </c>
       <c r="K180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -6025,7 +6030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>21</v>
       </c>
@@ -6036,31 +6041,31 @@
         <v>540</v>
       </c>
       <c r="D182" s="13">
-        <v>3.4045772649895971</v>
+        <v>3.4039334341906202</v>
       </c>
       <c r="E182" s="11">
-        <v>3.1481481481481479</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="F182" s="11">
-        <v>24.62962962962963</v>
+        <v>34.629629629629626</v>
       </c>
       <c r="G182" s="11">
-        <v>64.444444444444443</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="H182" s="11">
-        <v>90.18518518518519</v>
+        <v>96.481481481481481</v>
       </c>
       <c r="I182" s="11">
-        <v>97.407407407407405</v>
+        <v>98.703703703703709</v>
       </c>
       <c r="J182" s="11">
-        <v>99.81481481481481</v>
+        <v>100</v>
       </c>
       <c r="K182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -6091,7 +6096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>21</v>
       </c>
@@ -6102,31 +6107,31 @@
         <v>1067</v>
       </c>
       <c r="D184" s="13">
-        <v>3.8393724587096543</v>
+        <v>3.8388199316423814</v>
       </c>
       <c r="E184" s="11">
-        <v>2.8116213683223994</v>
+        <v>5.998125585754452</v>
       </c>
       <c r="F184" s="11">
-        <v>20.524835988753516</v>
+        <v>31.677600749765698</v>
       </c>
       <c r="G184" s="11">
-        <v>61.105904404873478</v>
+        <v>71.040299906279287</v>
       </c>
       <c r="H184" s="11">
-        <v>87.253983130271791</v>
+        <v>94.751640112464855</v>
       </c>
       <c r="I184" s="11">
-        <v>96.813495782567955</v>
+        <v>98.87535145267104</v>
       </c>
       <c r="J184" s="11">
-        <v>99.625117150890347</v>
+        <v>100</v>
       </c>
       <c r="K184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -6157,7 +6162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -6170,7 +6175,7 @@
       <c r="J186" s="16"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>48</v>
       </c>
@@ -6181,22 +6186,22 @@
         <v>89</v>
       </c>
       <c r="D187" s="13">
-        <v>0.7460184409052808</v>
+        <v>0.74595591316737908</v>
       </c>
       <c r="E187" s="11">
-        <v>6.7415730337078648</v>
+        <v>13.48314606741573</v>
       </c>
       <c r="F187" s="11">
-        <v>25.842696629213485</v>
+        <v>40.449438202247187</v>
       </c>
       <c r="G187" s="11">
-        <v>55.056179775280903</v>
+        <v>80.898876404494374</v>
       </c>
       <c r="H187" s="11">
-        <v>82.022471910112358</v>
+        <v>97.752808988764045</v>
       </c>
       <c r="I187" s="11">
-        <v>95.50561797752809</v>
+        <v>100</v>
       </c>
       <c r="J187" s="11">
         <v>100</v>
@@ -6205,7 +6210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -6236,7 +6241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>21</v>
       </c>
@@ -6247,31 +6252,31 @@
         <v>172</v>
       </c>
       <c r="D189" s="13">
-        <v>1.084420906626316</v>
+        <v>1.0842158345940494</v>
       </c>
       <c r="E189" s="11">
-        <v>8.1395348837209305</v>
+        <v>12.209302325581394</v>
       </c>
       <c r="F189" s="11">
-        <v>30.813953488372093</v>
+        <v>54.651162790697668</v>
       </c>
       <c r="G189" s="11">
-        <v>67.441860465116278</v>
+        <v>86.627906976744185</v>
       </c>
       <c r="H189" s="11">
-        <v>85.465116279069761</v>
+        <v>99.418604651162795</v>
       </c>
       <c r="I189" s="11">
-        <v>95.930232558139537</v>
+        <v>100</v>
       </c>
       <c r="J189" s="11">
-        <v>98.837209302325576</v>
+        <v>100</v>
       </c>
       <c r="K189" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -6302,7 +6307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -6313,31 +6318,31 @@
         <v>261</v>
       </c>
       <c r="D191" s="13">
-        <v>0.93915296318952179</v>
+        <v>0.93901780895844567</v>
       </c>
       <c r="E191" s="11">
-        <v>7.6628352490421454</v>
+        <v>12.643678160919542</v>
       </c>
       <c r="F191" s="11">
-        <v>29.118773946360154</v>
+        <v>49.808429118773944</v>
       </c>
       <c r="G191" s="11">
-        <v>63.218390804597703</v>
+        <v>84.674329501915707</v>
       </c>
       <c r="H191" s="11">
-        <v>84.291187739463595</v>
+        <v>98.850574712643677</v>
       </c>
       <c r="I191" s="11">
-        <v>95.785440613026822</v>
+        <v>100</v>
       </c>
       <c r="J191" s="11">
-        <v>99.23371647509579</v>
+        <v>100</v>
       </c>
       <c r="K191" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -6368,7 +6373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -6381,7 +6386,7 @@
       <c r="J193" s="16"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>49</v>
       </c>
@@ -6392,31 +6397,31 @@
         <v>63</v>
       </c>
       <c r="D194" s="13">
-        <v>0.52808046940486175</v>
+        <v>0.52803620819713348</v>
       </c>
       <c r="E194" s="11">
-        <v>3.1746031746031744</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="F194" s="11">
-        <v>20.634920634920633</v>
+        <v>39.682539682539684</v>
       </c>
       <c r="G194" s="11">
-        <v>42.857142857142854</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="H194" s="11">
-        <v>82.539682539682531</v>
+        <v>95.238095238095227</v>
       </c>
       <c r="I194" s="11">
-        <v>93.650793650793645</v>
+        <v>98.412698412698404</v>
       </c>
       <c r="J194" s="11">
-        <v>98.412698412698404</v>
+        <v>100</v>
       </c>
       <c r="K194" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -6447,7 +6452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>21</v>
       </c>
@@ -6458,22 +6463,22 @@
         <v>179</v>
       </c>
       <c r="D196" s="13">
-        <v>1.128554315616922</v>
+        <v>1.1283408976298537</v>
       </c>
       <c r="E196" s="11">
-        <v>3.9106145251396649</v>
+        <v>7.8212290502793298</v>
       </c>
       <c r="F196" s="11">
-        <v>19.553072625698324</v>
+        <v>38.547486033519554</v>
       </c>
       <c r="G196" s="11">
-        <v>56.983240223463682</v>
+        <v>77.653631284916202</v>
       </c>
       <c r="H196" s="11">
-        <v>86.592178770949729</v>
+        <v>97.765363128491629</v>
       </c>
       <c r="I196" s="11">
-        <v>97.206703910614522</v>
+        <v>100</v>
       </c>
       <c r="J196" s="11">
         <v>100</v>
@@ -6482,7 +6487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -6513,7 +6518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>21</v>
       </c>
@@ -6524,31 +6529,31 @@
         <v>242</v>
       </c>
       <c r="D198" s="13">
-        <v>0.87078550609909677</v>
+        <v>0.87066019068177736</v>
       </c>
       <c r="E198" s="11">
-        <v>3.71900826446281</v>
+        <v>8.2644628099173563</v>
       </c>
       <c r="F198" s="11">
-        <v>19.834710743801654</v>
+        <v>38.84297520661157</v>
       </c>
       <c r="G198" s="11">
-        <v>53.305785123966942</v>
+        <v>77.685950413223139</v>
       </c>
       <c r="H198" s="11">
-        <v>85.537190082644628</v>
+        <v>97.107438016528931</v>
       </c>
       <c r="I198" s="11">
-        <v>96.280991735537185</v>
+        <v>99.586776859504127</v>
       </c>
       <c r="J198" s="11">
-        <v>99.586776859504127</v>
+        <v>100</v>
       </c>
       <c r="K198" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6579,7 +6584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6592,7 +6597,7 @@
       <c r="J200" s="16"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>50</v>
       </c>
@@ -6603,22 +6608,22 @@
         <v>311</v>
       </c>
       <c r="D201" s="13">
-        <v>2.6068734283319364</v>
+        <v>2.6066549325287065</v>
       </c>
       <c r="E201" s="11">
-        <v>4.823151125401929</v>
+        <v>10.289389067524116</v>
       </c>
       <c r="F201" s="11">
-        <v>25.723472668810288</v>
+        <v>39.871382636655952</v>
       </c>
       <c r="G201" s="11">
-        <v>65.273311897106112</v>
+        <v>79.421221864951761</v>
       </c>
       <c r="H201" s="11">
-        <v>89.067524115755631</v>
+        <v>96.141479099678463</v>
       </c>
       <c r="I201" s="11">
-        <v>98.713826366559488</v>
+        <v>99.678456591639872</v>
       </c>
       <c r="J201" s="11">
         <v>100</v>
@@ -6627,7 +6632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6658,7 +6663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>21</v>
       </c>
@@ -6666,22 +6671,22 @@
         <v>22</v>
       </c>
       <c r="C203" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D203" s="13">
-        <v>1.1979068154593027</v>
+        <v>1.2039838628340898</v>
       </c>
       <c r="E203" s="11">
-        <v>14.736842105263156</v>
+        <v>24.083769633507853</v>
       </c>
       <c r="F203" s="11">
-        <v>45.789473684210527</v>
+        <v>67.539267015706798</v>
       </c>
       <c r="G203" s="11">
-        <v>83.684210526315795</v>
+        <v>92.670157068062835</v>
       </c>
       <c r="H203" s="11">
-        <v>96.84210526315789</v>
+        <v>99.476439790575924</v>
       </c>
       <c r="I203" s="11">
         <v>100</v>
@@ -6693,7 +6698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6724,7 +6729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>21</v>
       </c>
@@ -6732,25 +6737,25 @@
         <v>23</v>
       </c>
       <c r="C205" s="9">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D205" s="13">
-        <v>1.8027418948580474</v>
+        <v>1.8060802302572405</v>
       </c>
       <c r="E205" s="11">
-        <v>8.5828343313373257</v>
+        <v>15.53784860557769</v>
       </c>
       <c r="F205" s="11">
-        <v>33.333333333333329</v>
+        <v>50.398406374501988</v>
       </c>
       <c r="G205" s="11">
-        <v>72.255489021956095</v>
+        <v>84.462151394422307</v>
       </c>
       <c r="H205" s="11">
-        <v>92.015968063872251</v>
+        <v>97.410358565737056</v>
       </c>
       <c r="I205" s="11">
-        <v>99.201596806387229</v>
+        <v>99.800796812748999</v>
       </c>
       <c r="J205" s="11">
         <v>100</v>
@@ -6759,7 +6764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6790,7 +6795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6803,7 +6808,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>51</v>
       </c>
@@ -6814,31 +6819,31 @@
         <v>750</v>
       </c>
       <c r="D208" s="13">
-        <v>6.2866722548197824</v>
+        <v>6.2861453356801613</v>
       </c>
       <c r="E208" s="11">
-        <v>12.933333333333334</v>
+        <v>20.133333333333333</v>
       </c>
       <c r="F208" s="11">
-        <v>35.333333333333336</v>
+        <v>50.133333333333333</v>
       </c>
       <c r="G208" s="11">
-        <v>61.333333333333329</v>
+        <v>78.933333333333337</v>
       </c>
       <c r="H208" s="11">
-        <v>81.599999999999994</v>
+        <v>94.399999999999991</v>
       </c>
       <c r="I208" s="11">
-        <v>92.4</v>
+        <v>99.066666666666663</v>
       </c>
       <c r="J208" s="11">
-        <v>98.133333333333326</v>
+        <v>99.733333333333334</v>
       </c>
       <c r="K208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6869,7 +6874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>21</v>
       </c>
@@ -6880,31 +6885,31 @@
         <v>290</v>
       </c>
       <c r="D210" s="13">
-        <v>1.8283840867536725</v>
+        <v>1.8280383257690369</v>
       </c>
       <c r="E210" s="11">
-        <v>16.551724137931036</v>
+        <v>22.413793103448278</v>
       </c>
       <c r="F210" s="11">
-        <v>42.413793103448278</v>
+        <v>58.965517241379303</v>
       </c>
       <c r="G210" s="11">
-        <v>65.172413793103445</v>
+        <v>85.172413793103459</v>
       </c>
       <c r="H210" s="11">
-        <v>81.724137931034477</v>
+        <v>96.206896551724142</v>
       </c>
       <c r="I210" s="11">
-        <v>94.137931034482762</v>
+        <v>98.965517241379303</v>
       </c>
       <c r="J210" s="11">
-        <v>97.586206896551715</v>
+        <v>99.655172413793096</v>
       </c>
       <c r="K210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6935,7 +6940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>21</v>
       </c>
@@ -6946,31 +6951,31 @@
         <v>1040</v>
       </c>
       <c r="D212" s="13">
-        <v>3.742218703896945</v>
+        <v>3.7416801583018531</v>
       </c>
       <c r="E212" s="11">
-        <v>13.942307692307693</v>
+        <v>20.76923076923077</v>
       </c>
       <c r="F212" s="11">
-        <v>37.307692307692307</v>
+        <v>52.596153846153847</v>
       </c>
       <c r="G212" s="11">
-        <v>62.403846153846153</v>
+        <v>80.67307692307692</v>
       </c>
       <c r="H212" s="11">
-        <v>81.634615384615387</v>
+        <v>94.903846153846146</v>
       </c>
       <c r="I212" s="11">
-        <v>92.884615384615387</v>
+        <v>99.038461538461547</v>
       </c>
       <c r="J212" s="11">
-        <v>97.980769230769226</v>
+        <v>99.711538461538467</v>
       </c>
       <c r="K212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -7001,7 +7006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -7014,7 +7019,7 @@
       <c r="J214" s="16"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>52</v>
       </c>
@@ -7025,31 +7030,31 @@
         <v>586</v>
       </c>
       <c r="D215" s="13">
-        <v>4.9119865884325229</v>
+        <v>4.9115748889447657</v>
       </c>
       <c r="E215" s="11">
-        <v>4.0955631399317403</v>
+        <v>7.1672354948805461</v>
       </c>
       <c r="F215" s="11">
-        <v>23.890784982935152</v>
+        <v>34.8122866894198</v>
       </c>
       <c r="G215" s="11">
-        <v>62.286689419795223</v>
+        <v>73.37883959044369</v>
       </c>
       <c r="H215" s="11">
-        <v>86.86006825938567</v>
+        <v>93.856655290102381</v>
       </c>
       <c r="I215" s="11">
-        <v>94.539249146757669</v>
+        <v>98.634812286689424</v>
       </c>
       <c r="J215" s="11">
-        <v>98.976109215017061</v>
+        <v>99.829351535836182</v>
       </c>
       <c r="K215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -7080,7 +7085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>21</v>
       </c>
@@ -7088,34 +7093,34 @@
         <v>22</v>
       </c>
       <c r="C217" s="9">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D217" s="13">
-        <v>2.9884622659353131</v>
+        <v>2.9815935451336357</v>
       </c>
       <c r="E217" s="11">
-        <v>8.6497890295358655</v>
+        <v>15.221987315010571</v>
       </c>
       <c r="F217" s="11">
-        <v>30.590717299578056</v>
+        <v>43.551797040169134</v>
       </c>
       <c r="G217" s="11">
-        <v>64.978902953586498</v>
+        <v>77.58985200845666</v>
       </c>
       <c r="H217" s="11">
-        <v>86.70886075949366</v>
+        <v>94.714587737843544</v>
       </c>
       <c r="I217" s="11">
-        <v>95.358649789029542</v>
+        <v>98.942917547568712</v>
       </c>
       <c r="J217" s="11">
-        <v>98.734177215189874</v>
+        <v>99.788583509513742</v>
       </c>
       <c r="K217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -7146,7 +7151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>21</v>
       </c>
@@ -7154,34 +7159,34 @@
         <v>23</v>
       </c>
       <c r="C219" s="9">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D219" s="13">
-        <v>3.8141844482026559</v>
+        <v>3.8100377765785209</v>
       </c>
       <c r="E219" s="11">
-        <v>6.132075471698113</v>
+        <v>10.764872521246458</v>
       </c>
       <c r="F219" s="11">
-        <v>26.886792452830189</v>
+        <v>38.715769593956558</v>
       </c>
       <c r="G219" s="11">
-        <v>63.490566037735853</v>
+        <v>75.259678942398494</v>
       </c>
       <c r="H219" s="11">
-        <v>86.79245283018868</v>
+        <v>94.239848914069881</v>
       </c>
       <c r="I219" s="11">
-        <v>94.905660377358487</v>
+        <v>98.772426817752603</v>
       </c>
       <c r="J219" s="11">
-        <v>98.867924528301884</v>
+        <v>99.811142587346552</v>
       </c>
       <c r="K219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -7212,7 +7217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -7225,7 +7230,7 @@
       <c r="J221" s="16"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>53</v>
       </c>
@@ -7236,31 +7241,31 @@
         <v>79</v>
       </c>
       <c r="D222" s="13">
-        <v>0.66219614417435035</v>
+        <v>0.66214064202497702</v>
       </c>
       <c r="E222" s="11">
-        <v>1.2658227848101267</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="F222" s="11">
-        <v>13.924050632911392</v>
+        <v>31.645569620253166</v>
       </c>
       <c r="G222" s="11">
-        <v>44.303797468354425</v>
+        <v>63.291139240506332</v>
       </c>
       <c r="H222" s="11">
-        <v>69.620253164556971</v>
+        <v>86.075949367088612</v>
       </c>
       <c r="I222" s="11">
-        <v>91.139240506329116</v>
+        <v>98.734177215189874</v>
       </c>
       <c r="J222" s="11">
-        <v>97.468354430379748</v>
+        <v>100</v>
       </c>
       <c r="K222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -7291,7 +7296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>21</v>
       </c>
@@ -7299,34 +7304,34 @@
         <v>22</v>
       </c>
       <c r="C224" s="9">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D224" s="13">
-        <v>2.4966899943257048</v>
+        <v>2.5025214321734746</v>
       </c>
       <c r="E224" s="11">
-        <v>6.0606060606060606</v>
+        <v>8.5642317380352644</v>
       </c>
       <c r="F224" s="11">
-        <v>20.707070707070706</v>
+        <v>33.249370277078086</v>
       </c>
       <c r="G224" s="11">
-        <v>50.252525252525245</v>
+        <v>68.513853904282115</v>
       </c>
       <c r="H224" s="11">
-        <v>76.26262626262627</v>
+        <v>90.428211586901767</v>
       </c>
       <c r="I224" s="11">
-        <v>88.888888888888886</v>
+        <v>97.229219143576827</v>
       </c>
       <c r="J224" s="11">
-        <v>96.464646464646464</v>
+        <v>99.244332493702771</v>
       </c>
       <c r="K224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -7357,7 +7362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>21</v>
       </c>
@@ -7365,34 +7370,34 @@
         <v>23</v>
       </c>
       <c r="C226" s="9">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D226" s="13">
-        <v>1.7091864272606239</v>
+        <v>1.7125382262996942</v>
       </c>
       <c r="E226" s="11">
-        <v>5.2631578947368416</v>
+        <v>7.7731092436974789</v>
       </c>
       <c r="F226" s="11">
-        <v>19.578947368421051</v>
+        <v>32.983193277310924</v>
       </c>
       <c r="G226" s="11">
-        <v>49.263157894736842</v>
+        <v>67.64705882352942</v>
       </c>
       <c r="H226" s="11">
-        <v>75.157894736842096</v>
+        <v>89.705882352941174</v>
       </c>
       <c r="I226" s="11">
-        <v>89.26315789473685</v>
+        <v>97.47899159663865</v>
       </c>
       <c r="J226" s="11">
-        <v>96.631578947368425</v>
+        <v>99.369747899159663</v>
       </c>
       <c r="K226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -7423,7 +7428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -7436,7 +7441,7 @@
       <c r="J228" s="16"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>54</v>
       </c>
@@ -7447,31 +7452,31 @@
         <v>442</v>
       </c>
       <c r="D229" s="13">
-        <v>3.7049455155071249</v>
+        <v>3.7046349844941746</v>
       </c>
       <c r="E229" s="11">
-        <v>3.1674208144796379</v>
+        <v>8.5972850678733028</v>
       </c>
       <c r="F229" s="11">
-        <v>20.588235294117645</v>
+        <v>35.067873303167417</v>
       </c>
       <c r="G229" s="11">
-        <v>55.203619909502265</v>
+        <v>68.325791855203619</v>
       </c>
       <c r="H229" s="11">
-        <v>84.162895927601809</v>
+        <v>94.570135746606326</v>
       </c>
       <c r="I229" s="11">
-        <v>95.701357466063357</v>
+        <v>99.547511312217196</v>
       </c>
       <c r="J229" s="11">
-        <v>99.773755656108591</v>
+        <v>100</v>
       </c>
       <c r="K229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -7502,7 +7507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -7510,34 +7515,34 @@
         <v>22</v>
       </c>
       <c r="C231" s="9">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D231" s="13">
-        <v>8.561881344177543</v>
+        <v>8.5665658093797283</v>
       </c>
       <c r="E231" s="11">
-        <v>5.6701030927835054</v>
+        <v>11.037527593818984</v>
       </c>
       <c r="F231" s="11">
-        <v>27.245949926362297</v>
+        <v>41.648270787343634</v>
       </c>
       <c r="G231" s="11">
-        <v>63.254786450662735</v>
+        <v>78.73436350257542</v>
       </c>
       <c r="H231" s="11">
-        <v>90.058910162002945</v>
+        <v>96.688741721854313</v>
       </c>
       <c r="I231" s="11">
-        <v>98.527245949926368</v>
+        <v>99.558498896247244</v>
       </c>
       <c r="J231" s="11">
-        <v>99.631811487481599</v>
+        <v>100</v>
       </c>
       <c r="K231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -7568,7 +7573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -7576,34 +7581,34 @@
         <v>23</v>
       </c>
       <c r="C233" s="9">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D233" s="13">
-        <v>6.4769169875139436</v>
+        <v>6.4795826587515748</v>
       </c>
       <c r="E233" s="11">
-        <v>5.0555555555555554</v>
+        <v>10.438645197112715</v>
       </c>
       <c r="F233" s="11">
-        <v>25.611111111111111</v>
+        <v>40.033314825097165</v>
       </c>
       <c r="G233" s="11">
-        <v>61.277777777777779</v>
+        <v>76.179900055524712</v>
       </c>
       <c r="H233" s="11">
-        <v>88.611111111111114</v>
+        <v>96.168795113825652</v>
       </c>
       <c r="I233" s="11">
-        <v>97.833333333333343</v>
+        <v>99.555802332037757</v>
       </c>
       <c r="J233" s="11">
-        <v>99.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="K233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7634,7 +7639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7647,7 +7652,7 @@
       <c r="J235" s="16"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>55</v>
       </c>
@@ -7658,31 +7663,31 @@
         <v>181</v>
       </c>
       <c r="D236" s="13">
-        <v>1.5171835708298407</v>
+        <v>1.5170564076774788</v>
       </c>
       <c r="E236" s="11">
-        <v>2.2099447513812152</v>
+        <v>5.5248618784530388</v>
       </c>
       <c r="F236" s="11">
-        <v>17.127071823204421</v>
+        <v>33.701657458563538</v>
       </c>
       <c r="G236" s="11">
-        <v>55.248618784530393</v>
+        <v>69.060773480662988</v>
       </c>
       <c r="H236" s="11">
-        <v>80.110497237569049</v>
+        <v>90.055248618784532</v>
       </c>
       <c r="I236" s="11">
-        <v>92.265193370165747</v>
+        <v>94.475138121546962</v>
       </c>
       <c r="J236" s="11">
-        <v>97.237569060773481</v>
+        <v>98.895027624309392</v>
       </c>
       <c r="K236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7713,7 +7718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>21</v>
       </c>
@@ -7724,31 +7729,31 @@
         <v>644</v>
       </c>
       <c r="D238" s="13">
-        <v>4.060273627135742</v>
+        <v>4.0595057992939987</v>
       </c>
       <c r="E238" s="11">
-        <v>6.366459627329192</v>
+        <v>9.0062111801242235</v>
       </c>
       <c r="F238" s="11">
-        <v>23.913043478260871</v>
+        <v>34.161490683229815</v>
       </c>
       <c r="G238" s="11">
-        <v>55.590062111801245</v>
+        <v>71.273291925465841</v>
       </c>
       <c r="H238" s="11">
-        <v>80.745341614906835</v>
+        <v>93.478260869565219</v>
       </c>
       <c r="I238" s="11">
-        <v>93.633540372670808</v>
+        <v>97.67080745341616</v>
       </c>
       <c r="J238" s="11">
-        <v>98.291925465838517</v>
+        <v>99.068322981366464</v>
       </c>
       <c r="K238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7779,7 +7784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>21</v>
       </c>
@@ -7790,31 +7795,31 @@
         <v>825</v>
       </c>
       <c r="D240" s="13">
-        <v>2.9685869526105573</v>
+        <v>2.9681597409606044</v>
       </c>
       <c r="E240" s="11">
-        <v>5.4545454545454541</v>
+        <v>8.2424242424242422</v>
       </c>
       <c r="F240" s="11">
-        <v>22.424242424242426</v>
+        <v>34.060606060606055</v>
       </c>
       <c r="G240" s="11">
-        <v>55.515151515151516</v>
+        <v>70.787878787878782</v>
       </c>
       <c r="H240" s="11">
-        <v>80.606060606060609</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="I240" s="11">
-        <v>93.333333333333329</v>
+        <v>96.969696969696969</v>
       </c>
       <c r="J240" s="11">
-        <v>98.060606060606062</v>
+        <v>99.030303030303031</v>
       </c>
       <c r="K240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7845,7 +7850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7858,7 +7863,7 @@
       <c r="J242" s="16"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>56</v>
       </c>
@@ -7866,22 +7871,22 @@
         <v>20</v>
       </c>
       <c r="C243" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D243" s="13">
-        <v>1.2908633696563285</v>
+        <v>1.2991367027072331</v>
       </c>
       <c r="E243" s="11">
-        <v>5.1948051948051948</v>
+        <v>11.612903225806452</v>
       </c>
       <c r="F243" s="11">
-        <v>38.311688311688314</v>
+        <v>45.806451612903224</v>
       </c>
       <c r="G243" s="11">
-        <v>79.870129870129873</v>
+        <v>86.451612903225808</v>
       </c>
       <c r="H243" s="11">
-        <v>96.103896103896105</v>
+        <v>98.064516129032256</v>
       </c>
       <c r="I243" s="11">
         <v>100</v>
@@ -7893,7 +7898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7924,7 +7929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>21</v>
       </c>
@@ -7935,19 +7940,19 @@
         <v>319</v>
       </c>
       <c r="D245" s="13">
-        <v>2.0112224954290396</v>
+        <v>2.0108421583459402</v>
       </c>
       <c r="E245" s="11">
-        <v>10.658307210031348</v>
+        <v>14.733542319749215</v>
       </c>
       <c r="F245" s="11">
-        <v>46.394984326018808</v>
+        <v>53.918495297805649</v>
       </c>
       <c r="G245" s="11">
-        <v>83.699059561128536</v>
+        <v>89.341692789968647</v>
       </c>
       <c r="H245" s="11">
-        <v>97.805642633228842</v>
+        <v>98.746081504702204</v>
       </c>
       <c r="I245" s="11">
         <v>99.686520376175551</v>
@@ -7959,7 +7964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -7990,7 +7995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>21</v>
       </c>
@@ -7998,25 +8003,25 @@
         <v>23</v>
       </c>
       <c r="C247" s="9">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D247" s="13">
-        <v>1.701989852830053</v>
+        <v>1.7053426875337292</v>
       </c>
       <c r="E247" s="11">
-        <v>8.8794926004228341</v>
+        <v>13.71308016877637</v>
       </c>
       <c r="F247" s="11">
-        <v>43.763213530655392</v>
+        <v>51.265822784810119</v>
       </c>
       <c r="G247" s="11">
-        <v>82.4524312896406</v>
+        <v>88.396624472573833</v>
       </c>
       <c r="H247" s="11">
-        <v>97.25158562367865</v>
+        <v>98.523206751054843</v>
       </c>
       <c r="I247" s="11">
-        <v>99.788583509513742</v>
+        <v>99.789029535864984</v>
       </c>
       <c r="J247" s="11">
         <v>100</v>
@@ -8025,7 +8030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -8056,7 +8061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -8069,7 +8074,7 @@
       <c r="J249" s="16"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>57</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -8135,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -8201,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>21</v>
       </c>
@@ -8236,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -8267,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -8280,7 +8285,7 @@
       <c r="J256" s="18"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>58</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="15">
@@ -8346,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>21</v>
       </c>
@@ -8381,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -8412,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>21</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="15">
@@ -8478,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -8491,7 +8496,7 @@
       <c r="J263" s="16"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>59</v>
       </c>
@@ -8502,7 +8507,7 @@
         <v>25</v>
       </c>
       <c r="D264" s="13">
-        <v>0.20955574182732606</v>
+        <v>0.20953817785600537</v>
       </c>
       <c r="E264" s="11">
         <v>8</v>
@@ -8526,7 +8531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -8557,7 +8562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>47</v>
       </c>
       <c r="D266" s="13">
-        <v>0.29632431750835381</v>
+        <v>0.2962682803832577</v>
       </c>
       <c r="E266" s="11">
         <v>19.148936170212767</v>
@@ -8592,7 +8597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -8623,7 +8628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>21</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>72</v>
       </c>
       <c r="D268" s="13">
-        <v>0.25907667950055774</v>
+        <v>0.2590393955747437</v>
       </c>
       <c r="E268" s="11">
         <v>15.277777777777779</v>
@@ -8658,7 +8663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -8689,7 +8694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -8702,7 +8707,7 @@
       <c r="J270" s="16"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>60</v>
       </c>
@@ -8713,31 +8718,31 @@
         <v>241</v>
       </c>
       <c r="D271" s="13">
-        <v>2.0201173512154234</v>
+        <v>2.0199480345318919</v>
       </c>
       <c r="E271" s="11">
-        <v>4.1493775933609953</v>
+        <v>6.6390041493775938</v>
       </c>
       <c r="F271" s="11">
-        <v>14.937759336099585</v>
+        <v>24.066390041493776</v>
       </c>
       <c r="G271" s="11">
-        <v>39.834024896265561</v>
+        <v>55.186721991701248</v>
       </c>
       <c r="H271" s="11">
-        <v>65.145228215767631</v>
+        <v>88.38174273858921</v>
       </c>
       <c r="I271" s="11">
-        <v>87.551867219917014</v>
+        <v>97.510373443983397</v>
       </c>
       <c r="J271" s="11">
-        <v>98.340248962655593</v>
+        <v>100</v>
       </c>
       <c r="K271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8768,7 +8773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>21</v>
       </c>
@@ -8779,31 +8784,31 @@
         <v>300</v>
       </c>
       <c r="D273" s="13">
-        <v>1.8914318138831094</v>
+        <v>1.8910741301059002</v>
       </c>
       <c r="E273" s="11">
-        <v>2.666666666666667</v>
+        <v>4.3333333333333339</v>
       </c>
       <c r="F273" s="11">
-        <v>11</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="G273" s="11">
-        <v>36</v>
+        <v>60.666666666666671</v>
       </c>
       <c r="H273" s="11">
-        <v>65</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="I273" s="11">
-        <v>87.333333333333329</v>
+        <v>99</v>
       </c>
       <c r="J273" s="11">
-        <v>97.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="K273" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8834,7 +8839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>21</v>
       </c>
@@ -8845,31 +8850,31 @@
         <v>541</v>
       </c>
       <c r="D275" s="13">
-        <v>1.9466733834694685</v>
+        <v>1.9463932361935599</v>
       </c>
       <c r="E275" s="11">
-        <v>3.3271719038817005</v>
+        <v>5.360443622920517</v>
       </c>
       <c r="F275" s="11">
-        <v>12.754158964879853</v>
+        <v>23.659889094269872</v>
       </c>
       <c r="G275" s="11">
-        <v>37.707948243992604</v>
+        <v>58.225508317929766</v>
       </c>
       <c r="H275" s="11">
-        <v>65.064695009242143</v>
+        <v>90.573012939001856</v>
       </c>
       <c r="I275" s="11">
-        <v>87.430683918669132</v>
+        <v>98.336414048059154</v>
       </c>
       <c r="J275" s="11">
-        <v>97.966728280961178</v>
+        <v>100</v>
       </c>
       <c r="K275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8900,7 +8905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8913,7 +8918,7 @@
       <c r="J277" s="16"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>61</v>
       </c>
@@ -8924,19 +8929,19 @@
         <v>118</v>
       </c>
       <c r="D278" s="13">
-        <v>0.98910310142497904</v>
+        <v>0.98902019948034525</v>
       </c>
       <c r="E278" s="11">
-        <v>1.6949152542372881</v>
+        <v>6.7796610169491522</v>
       </c>
       <c r="F278" s="11">
-        <v>29.66101694915254</v>
+        <v>37.288135593220339</v>
       </c>
       <c r="G278" s="11">
-        <v>52.542372881355938</v>
+        <v>66.101694915254242</v>
       </c>
       <c r="H278" s="11">
-        <v>83.050847457627114</v>
+        <v>91.525423728813564</v>
       </c>
       <c r="I278" s="11">
         <v>96.610169491525426</v>
@@ -8948,7 +8953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -8979,7 +8984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>21</v>
       </c>
@@ -8990,31 +8995,31 @@
         <v>549</v>
       </c>
       <c r="D280" s="13">
-        <v>3.4613202194060904</v>
+        <v>3.4606656580937969</v>
       </c>
       <c r="E280" s="11">
-        <v>7.8324225865209467</v>
+        <v>14.571948998178508</v>
       </c>
       <c r="F280" s="11">
-        <v>35.336976320582878</v>
+        <v>46.630236794171218</v>
       </c>
       <c r="G280" s="11">
-        <v>65.938069216757739</v>
+        <v>80.510018214936252</v>
       </c>
       <c r="H280" s="11">
-        <v>90.163934426229503</v>
+        <v>95.081967213114751</v>
       </c>
       <c r="I280" s="11">
-        <v>99.089253187613849</v>
+        <v>99.635701275045534</v>
       </c>
       <c r="J280" s="11">
-        <v>99.817850637522767</v>
+        <v>100</v>
       </c>
       <c r="K280" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -9045,7 +9050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>21</v>
       </c>
@@ -9056,31 +9061,31 @@
         <v>667</v>
       </c>
       <c r="D282" s="13">
-        <v>2.4000575725954447</v>
+        <v>2.3997121784493616</v>
       </c>
       <c r="E282" s="11">
-        <v>6.746626686656672</v>
+        <v>13.193403298350825</v>
       </c>
       <c r="F282" s="11">
-        <v>34.332833583208391</v>
+        <v>44.977511244377808</v>
       </c>
       <c r="G282" s="11">
-        <v>63.568215892053971</v>
+        <v>77.96101949025487</v>
       </c>
       <c r="H282" s="11">
-        <v>88.905547226386801</v>
+        <v>94.452773613193415</v>
       </c>
       <c r="I282" s="11">
-        <v>98.650674662668663</v>
+        <v>99.100449775112438</v>
       </c>
       <c r="J282" s="11">
-        <v>99.700149925037479</v>
+        <v>99.850074962518747</v>
       </c>
       <c r="K282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -9111,7 +9116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -9124,7 +9129,7 @@
       <c r="J284" s="16"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>62</v>
       </c>
@@ -9132,34 +9137,34 @@
         <v>20</v>
       </c>
       <c r="C285" s="10">
-        <v>11930</v>
+        <v>11931</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>9.2036881810561599</v>
+        <v>13.972005699438439</v>
       </c>
       <c r="F285" s="12">
-        <v>30.461022632020118</v>
+        <v>41.999832369457714</v>
       </c>
       <c r="G285" s="12">
-        <v>61.424979044425818</v>
+        <v>74.142988852568934</v>
       </c>
       <c r="H285" s="12">
-        <v>84.04861693210394</v>
+        <v>93.705473137205601</v>
       </c>
       <c r="I285" s="12">
-        <v>95.155071248952211</v>
+        <v>98.726007878635485</v>
       </c>
       <c r="J285" s="12">
-        <v>98.868398994132434</v>
+        <v>99.807224876372487</v>
       </c>
       <c r="K285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -9190,7 +9195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>21</v>
       </c>
@@ -9198,34 +9203,34 @@
         <v>22</v>
       </c>
       <c r="C287" s="9">
-        <v>15861</v>
+        <v>15864</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>10.289389067524116</v>
+        <v>15.532022188603126</v>
       </c>
       <c r="F287" s="11">
-        <v>35.212155601790556</v>
+        <v>47.837871911245585</v>
       </c>
       <c r="G287" s="11">
-        <v>67.007124393165626</v>
+        <v>79.809631870902678</v>
       </c>
       <c r="H287" s="11">
-        <v>88.090284345249358</v>
+        <v>96.06026222894603</v>
       </c>
       <c r="I287" s="11">
-        <v>96.992623415925863</v>
+        <v>99.199445284921836</v>
       </c>
       <c r="J287" s="11">
-        <v>99.319084547002078</v>
+        <v>99.842410489157842</v>
       </c>
       <c r="K287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -9256,7 +9261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -9264,34 +9269,34 @@
         <v>23</v>
       </c>
       <c r="C289" s="9">
-        <v>27791</v>
+        <v>27795</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>9.8233240977294809</v>
+        <v>14.862385321100918</v>
       </c>
       <c r="F289" s="11">
-        <v>33.172609837717246</v>
+        <v>45.331894225580136</v>
       </c>
       <c r="G289" s="11">
-        <v>64.610845237666865</v>
+        <v>77.377226119805727</v>
       </c>
       <c r="H289" s="11">
-        <v>86.355294879637285</v>
+        <v>95.049469329016006</v>
       </c>
       <c r="I289" s="11">
-        <v>96.203806987873776</v>
+        <v>98.99622234214786</v>
       </c>
       <c r="J289" s="11">
-        <v>99.125616206685621</v>
+        <v>99.827307069616836</v>
       </c>
       <c r="K289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -9322,7 +9327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -9335,21 +9340,22 @@
       <c r="J291" s="18"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="303" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E10:K10"/>
@@ -9360,7 +9366,7 @@
     <mergeCell ref="A8:K8"/>
   </mergeCells>
   <pageMargins left="0.39370100000000002" right="0.39370100000000002" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="60" max="16383" man="1"/>
     <brk id="109" max="16383" man="1"/>
@@ -9375,15 +9381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090D0A8DD6E31254CB6B82BDDBE6EF879" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61df0b1d8400fc727567e63bfe041aeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d048d99c9241f1c9d2995dcd3d31fee4" ns2:_="">
     <xsd:import namespace="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835"/>
@@ -9567,22 +9564,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC9AFCF-A267-4D99-980D-AECC000945CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D2616D-4B0B-42F2-B66E-9F4D01EC6CC8}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D194-DACB-4E56-8971-7C3D57852723}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9599,11 +9597,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F849D60-556F-41DD-A2D1-2F2927E66BD0}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC2C9A3-2018-4F2A-B7B5-935C1758FC81}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C015C7-D148-48DF-8309-2B2FE65D7323}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>